--- a/Artifacts/World Small Stocks_stocks.xlsx
+++ b/Artifacts/World Small Stocks_stocks.xlsx
@@ -527,16 +527,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4107782656</v>
+        <v>4192979456</v>
       </c>
       <c r="H2" t="n">
-        <v>8.295627</v>
+        <v>8.351710000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>8.050737</v>
+        <v>8.105166000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>0.03041833312900422</v>
+        <v>0.03041813085629586</v>
       </c>
       <c r="K2" t="n">
         <v>5099753984</v>
@@ -577,16 +577,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4138510848</v>
+        <v>3578386176</v>
       </c>
       <c r="H3" t="n">
-        <v>18.4375</v>
+        <v>15.947368</v>
       </c>
       <c r="I3" t="n">
-        <v>28.780489</v>
+        <v>25.865852</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.3593750266022234</v>
+        <v>-0.3834586233617976</v>
       </c>
       <c r="K3" t="n">
         <v>1018884992</v>
@@ -627,16 +627,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>5458860544</v>
+        <v>5336061952</v>
       </c>
       <c r="H4" t="n">
-        <v>22.37607</v>
+        <v>21.911018</v>
       </c>
       <c r="I4" t="n">
-        <v>25.793104</v>
+        <v>25.472906</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1324785880753243</v>
+        <v>-0.1398304535807575</v>
       </c>
       <c r="K4" t="n">
         <v>1700612992</v>
@@ -677,16 +677,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4371709440</v>
+        <v>4420394496</v>
       </c>
       <c r="H5" t="n">
-        <v>19.753317</v>
+        <v>19.98939</v>
       </c>
       <c r="I5" t="n">
-        <v>20.859945</v>
+        <v>21.109243</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.05305037956715608</v>
+        <v>-0.0530503628197373</v>
       </c>
       <c r="K5" t="n">
         <v>2489518080</v>
@@ -727,16 +727,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3825250304</v>
+        <v>3655822592</v>
       </c>
       <c r="H6" t="n">
-        <v>18.8</v>
+        <v>18.02353</v>
       </c>
       <c r="I6" t="n">
-        <v>22.194443</v>
+        <v>21.277777</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.1529411213428514</v>
+        <v>-0.1529411178620774</v>
       </c>
       <c r="K6" t="n">
         <v>474174016</v>
@@ -777,16 +777,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>7036291584</v>
+        <v>7044492800</v>
       </c>
       <c r="H7" t="n">
-        <v>12.084507</v>
+        <v>12.112677</v>
       </c>
       <c r="I7" t="n">
-        <v>10.724999</v>
+        <v>10.75</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1267606644998289</v>
+        <v>0.1267606511627906</v>
       </c>
       <c r="K7" t="n">
         <v>5058741248</v>
@@ -827,16 +827,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>5180858368</v>
+        <v>5317130752</v>
       </c>
       <c r="H8" t="n">
-        <v>23.777227</v>
+        <v>24.402641</v>
       </c>
       <c r="I8" t="n">
-        <v>21.898176</v>
+        <v>22.474165</v>
       </c>
       <c r="J8" t="n">
-        <v>0.08580856232044165</v>
+        <v>0.08580857175338874</v>
       </c>
       <c r="K8" t="n">
         <v>1788290048</v>
@@ -877,16 +877,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>7390045696</v>
+        <v>7135014912</v>
       </c>
       <c r="H9" t="n">
-        <v>10.090069</v>
+        <v>9.740868000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>9.623348</v>
+        <v>9.397577</v>
       </c>
       <c r="J9" t="n">
-        <v>0.04849881766719855</v>
+        <v>0.03652973527112358</v>
       </c>
       <c r="K9" t="n">
         <v>3200000000</v>
@@ -927,16 +927,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>9152434176</v>
+        <v>9129335808</v>
       </c>
       <c r="H10" t="n">
-        <v>16.84413</v>
+        <v>16.437246</v>
       </c>
       <c r="I10" t="n">
-        <v>11.836415</v>
+        <v>11.550497</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4230770043125387</v>
+        <v>0.4230769463859432</v>
       </c>
       <c r="K10" t="n">
         <v>4646577152</v>
@@ -977,11 +977,11 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>7235247104</v>
+        <v>7031271424</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>225.89473</v>
+        <v>219.5263</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
@@ -1023,11 +1023,11 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3663096320</v>
+        <v>3477369856</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>27.478262</v>
+        <v>26.456522</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
@@ -1069,16 +1069,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>5152243712</v>
+        <v>5128238592</v>
       </c>
       <c r="H13" t="n">
-        <v>13.250884</v>
+        <v>13.186948</v>
       </c>
       <c r="I13" t="n">
-        <v>14.910536</v>
+        <v>14.86481</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.1113073332843301</v>
+        <v>-0.1128747693377851</v>
       </c>
       <c r="K13" t="n">
         <v>1116353024</v>
@@ -1117,16 +1117,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>9156786176</v>
+        <v>9348151296</v>
       </c>
       <c r="H14" t="n">
-        <v>20.147367</v>
+        <v>20.568422</v>
       </c>
       <c r="I14" t="n">
-        <v>18.950495</v>
+        <v>19.346537</v>
       </c>
       <c r="J14" t="n">
-        <v>0.06315782252653546</v>
+        <v>0.06315781475516791</v>
       </c>
       <c r="K14" t="n">
         <v>1224620032</v>
@@ -1167,16 +1167,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>10299759616</v>
+        <v>10519100416</v>
       </c>
       <c r="H15" t="n">
-        <v>21.79085</v>
+        <v>22.11039</v>
       </c>
       <c r="I15" t="n">
-        <v>15.506976</v>
+        <v>15.837208</v>
       </c>
       <c r="J15" t="n">
-        <v>0.4052288466816483</v>
+        <v>0.3961040355092891</v>
       </c>
       <c r="K15" t="n">
         <v>4870111232</v>
@@ -1217,16 +1217,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>10224566272</v>
+        <v>9894360064</v>
       </c>
       <c r="H16" t="n">
-        <v>51.536762</v>
+        <v>49.724323</v>
       </c>
       <c r="I16" t="n">
-        <v>51.067394</v>
+        <v>50.26776</v>
       </c>
       <c r="J16" t="n">
-        <v>0.009191148465496513</v>
+        <v>-0.01081084575879265</v>
       </c>
       <c r="K16" t="n">
         <v>862673984</v>
@@ -1267,16 +1267,16 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>10000259072</v>
+        <v>9791495168</v>
       </c>
       <c r="H17" t="n">
-        <v>26.20178</v>
+        <v>25.577494</v>
       </c>
       <c r="I17" t="n">
-        <v>25.061495</v>
+        <v>24.512774</v>
       </c>
       <c r="J17" t="n">
-        <v>0.04549948037816565</v>
+        <v>0.04343531254357424</v>
       </c>
       <c r="K17" t="n">
         <v>4563424256</v>
@@ -1317,16 +1317,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>8743663616</v>
+        <v>8618489856</v>
       </c>
       <c r="H18" t="n">
-        <v>22.92014</v>
+        <v>22.555174</v>
       </c>
       <c r="I18" t="n">
-        <v>22.263071</v>
+        <v>22.06071</v>
       </c>
       <c r="J18" t="n">
-        <v>0.02951385278338292</v>
+        <v>0.02241378450648246</v>
       </c>
       <c r="K18" t="n">
         <v>3610693120</v>
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4497512448</v>
+        <v>4661026304</v>
       </c>
       <c r="H19" t="n">
-        <v>19.233082</v>
+        <v>19.932331</v>
       </c>
       <c r="I19" t="n">
-        <v>17.641378</v>
+        <v>18.282759</v>
       </c>
       <c r="J19" t="n">
-        <v>0.09022560482520126</v>
+        <v>0.09022555074975291</v>
       </c>
       <c r="K19" t="n">
         <v>1348892032</v>
@@ -1417,16 +1417,16 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>8431048704</v>
+        <v>8347560448</v>
       </c>
       <c r="H20" t="n">
-        <v>28.874073</v>
+        <v>28.554234</v>
       </c>
       <c r="I20" t="n">
-        <v>28.49415</v>
+        <v>28.095028</v>
       </c>
       <c r="J20" t="n">
-        <v>0.01333336842825616</v>
+        <v>0.01634474256441387</v>
       </c>
       <c r="K20" t="n">
         <v>1561600000</v>
@@ -1467,16 +1467,16 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>4764755968</v>
+        <v>4646005248</v>
       </c>
       <c r="H21" t="n">
-        <v>8.780797</v>
+        <v>8.649706999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>8.752257</v>
+        <v>8.534127</v>
       </c>
       <c r="J21" t="n">
-        <v>0.003260873166772926</v>
+        <v>0.01354327161993241</v>
       </c>
       <c r="K21" t="n">
         <v>17262800896</v>
@@ -1517,16 +1517,16 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>5215138304</v>
+        <v>5451436032</v>
       </c>
       <c r="H22" t="n">
-        <v>27.151081</v>
+        <v>27.482016</v>
       </c>
       <c r="I22" t="n">
-        <v>25.32886</v>
+        <v>25.637585</v>
       </c>
       <c r="J22" t="n">
-        <v>0.07194247984315139</v>
+        <v>0.07194246259934389</v>
       </c>
       <c r="K22" t="n">
         <v>8356955136</v>
@@ -1567,16 +1567,16 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>9737618432</v>
+        <v>9590149120</v>
       </c>
       <c r="H23" t="n">
-        <v>13.901316</v>
+        <v>13.508772</v>
       </c>
       <c r="I23" t="n">
-        <v>12.453831</v>
+        <v>12.10216</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1162280907778499</v>
+        <v>0.116228177449315</v>
       </c>
       <c r="K23" t="n">
         <v>10462000128</v>
@@ -1617,16 +1617,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>8344481280</v>
+        <v>8187681280</v>
       </c>
       <c r="H24" t="n">
-        <v>12.118812</v>
+        <v>11.89899</v>
       </c>
       <c r="I24" t="n">
-        <v>10.831859</v>
+        <v>10.424779</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1188118309147119</v>
+        <v>0.141414124942121</v>
       </c>
       <c r="K24" t="n">
         <v>6665800192</v>
@@ -1667,16 +1667,16 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>6321799168</v>
+        <v>6159369216</v>
       </c>
       <c r="H25" t="n">
-        <v>14.308824</v>
+        <v>13.62255</v>
       </c>
       <c r="I25" t="n">
-        <v>12.061983</v>
+        <v>11.483471</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1862745951474147</v>
+        <v>0.1862746028618003</v>
       </c>
       <c r="K25" t="n">
         <v>5198000128</v>
@@ -1717,16 +1717,16 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>5169712640</v>
+        <v>5155863040</v>
       </c>
       <c r="H26" t="n">
-        <v>38.22004</v>
+        <v>38.200874</v>
       </c>
       <c r="I26" t="n">
-        <v>35.80204</v>
+        <v>35.706123</v>
       </c>
       <c r="J26" t="n">
-        <v>0.06753805090436193</v>
+        <v>0.06986899697847337</v>
       </c>
       <c r="K26" t="n">
         <v>873926016</v>
@@ -1767,16 +1767,16 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>5001345536</v>
+        <v>4940654080</v>
       </c>
       <c r="H27" t="n">
-        <v>35.337933</v>
+        <v>34.508045</v>
       </c>
       <c r="I27" t="n">
-        <v>31.5</v>
+        <v>30.760244</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1218391428571428</v>
+        <v>0.1218391180512093</v>
       </c>
       <c r="K27" t="n">
         <v>985929984</v>
@@ -1817,16 +1817,16 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>4326379520</v>
+        <v>4343533568</v>
       </c>
       <c r="H28" t="n">
-        <v>18.634863</v>
+        <v>18.789625</v>
       </c>
       <c r="I28" t="n">
-        <v>21.01699</v>
+        <v>21.100323</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.1133429192286812</v>
+        <v>-0.109510077168013</v>
       </c>
       <c r="K28" t="n">
         <v>656147968</v>
@@ -1865,16 +1865,16 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>5811167744</v>
+        <v>5839328256</v>
       </c>
       <c r="H29" t="n">
-        <v>8.375</v>
+        <v>8.415585</v>
       </c>
       <c r="I29" t="n">
-        <v>8.699832000000001</v>
+        <v>8.741989999999999</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.03733773249874262</v>
+        <v>-0.03733760848502454</v>
       </c>
       <c r="K29" t="n">
         <v>1514019968</v>
@@ -1913,16 +1913,16 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>5200103424</v>
+        <v>4932273152</v>
       </c>
       <c r="H30" t="n">
-        <v>23.691336</v>
+        <v>22.634544</v>
       </c>
       <c r="I30" t="n">
-        <v>17.156862</v>
+        <v>16.273203</v>
       </c>
       <c r="J30" t="n">
-        <v>0.3808665011119166</v>
+        <v>0.390908968566299</v>
       </c>
       <c r="K30" t="n">
         <v>2617820928</v>
@@ -1963,16 +1963,16 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>4577140224</v>
+        <v>4548681216</v>
       </c>
       <c r="H31" t="n">
-        <v>32</v>
+        <v>31.966665</v>
       </c>
       <c r="I31" t="n">
-        <v>9.056604</v>
+        <v>9.047171000000001</v>
       </c>
       <c r="J31" t="n">
-        <v>2.533333245000002</v>
+        <v>2.533332684880168</v>
       </c>
       <c r="K31" t="n">
         <v>2473843968</v>
@@ -2011,11 +2011,11 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>5435098112</v>
+        <v>5405625344</v>
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="n">
-        <v>25.835749</v>
+        <v>25.695652</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
@@ -2057,16 +2057,16 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>8479907840</v>
+        <v>8338300416</v>
       </c>
       <c r="H33" t="n">
-        <v>24.015625</v>
+        <v>23.390625</v>
       </c>
       <c r="I33" t="n">
-        <v>24.657755</v>
+        <v>24.016043</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.02604170574328446</v>
+        <v>-0.0260416755582924</v>
       </c>
       <c r="K33" t="n">
         <v>2026855040</v>
@@ -2107,16 +2107,16 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>5364956160</v>
+        <v>5197511680</v>
       </c>
       <c r="H34" t="n">
-        <v>27.640902</v>
+        <v>26.745283</v>
       </c>
       <c r="I34" t="n">
-        <v>26.047039</v>
+        <v>25.811836</v>
       </c>
       <c r="J34" t="n">
-        <v>0.06119171549595315</v>
+        <v>0.03616352591113636</v>
       </c>
       <c r="K34" t="n">
         <v>1991784960</v>
@@ -2157,16 +2157,16 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4689953280</v>
+        <v>4682708992</v>
       </c>
       <c r="H35" t="n">
-        <v>25.690475</v>
+        <v>25.63492</v>
       </c>
       <c r="I35" t="n">
-        <v>17.403225</v>
+        <v>17.365591</v>
       </c>
       <c r="J35" t="n">
-        <v>0.4761904761904763</v>
+        <v>0.4761904734483269</v>
       </c>
       <c r="K35" t="n">
         <v>1125703936</v>
@@ -2207,16 +2207,16 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>6823675392</v>
+        <v>6774763008</v>
       </c>
       <c r="H36" t="n">
-        <v>13.173374</v>
+        <v>13.078947</v>
       </c>
       <c r="I36" t="n">
-        <v>13.193799</v>
+        <v>13.099225</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.001548075728605491</v>
+        <v>-0.001548030513255694</v>
       </c>
       <c r="K36" t="n">
         <v>4027724032</v>
@@ -2257,16 +2257,16 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>6228605440</v>
+        <v>6101212672</v>
       </c>
       <c r="H37" t="n">
-        <v>36.02658</v>
+        <v>35.17377</v>
       </c>
       <c r="I37" t="n">
-        <v>26.578432</v>
+        <v>26.294117</v>
       </c>
       <c r="J37" t="n">
-        <v>0.355481768074204</v>
+        <v>0.3377049322477723</v>
       </c>
       <c r="K37" t="n">
         <v>2790341888</v>
@@ -2307,16 +2307,16 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>4847407104</v>
+        <v>4846990336</v>
       </c>
       <c r="H38" t="n">
-        <v>31.365852</v>
+        <v>31.19407</v>
       </c>
       <c r="I38" t="n">
-        <v>14.70648</v>
+        <v>14.705211</v>
       </c>
       <c r="J38" t="n">
-        <v>1.132791259363219</v>
+        <v>1.121293601295486</v>
       </c>
       <c r="K38" t="n">
         <v>5069899776</v>
@@ -2357,16 +2357,16 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>6170997760</v>
+        <v>6094461440</v>
       </c>
       <c r="H39" t="n">
-        <v>16.668268</v>
+        <v>16.008423</v>
       </c>
       <c r="I39" t="n">
-        <v>22.36774</v>
+        <v>21.456451</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.2548076828503908</v>
+        <v>-0.2539109566628703</v>
       </c>
       <c r="K39" t="n">
         <v>5384200192</v>
@@ -2407,16 +2407,16 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>8426920960</v>
+        <v>8338151936</v>
       </c>
       <c r="H40" t="n">
-        <v>25.027273</v>
+        <v>24.990826</v>
       </c>
       <c r="I40" t="n">
-        <v>28.381443</v>
+        <v>28.082474</v>
       </c>
       <c r="J40" t="n">
-        <v>-0.1181817992834261</v>
+        <v>-0.1100917248245294</v>
       </c>
       <c r="K40" t="n">
         <v>1326128000</v>
@@ -2457,11 +2457,11 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>5490976256</v>
+        <v>5478496768</v>
       </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="n">
-        <v>19.701492</v>
+        <v>19.335821</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
@@ -2503,16 +2503,16 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>4696980480</v>
+        <v>4728018944</v>
       </c>
       <c r="H42" t="n">
-        <v>3.8817635</v>
+        <v>3.9074147</v>
       </c>
       <c r="I42" t="n">
-        <v>30.077639</v>
+        <v>30.276396</v>
       </c>
       <c r="J42" t="n">
-        <v>-0.8709418814422236</v>
+        <v>-0.8709418815898695</v>
       </c>
       <c r="K42" t="n">
         <v>4261884928</v>
@@ -2553,16 +2553,16 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>4607983616</v>
+        <v>4696695296</v>
       </c>
       <c r="H43" t="n">
-        <v>7.0319285</v>
+        <v>7.166028</v>
       </c>
       <c r="I43" t="n">
-        <v>12.290179</v>
+        <v>12.524553</v>
       </c>
       <c r="J43" t="n">
-        <v>-0.4278416530792595</v>
+        <v>-0.427841616383435</v>
       </c>
       <c r="K43" t="n">
         <v>3624000000</v>
@@ -2603,16 +2603,16 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>7738208256</v>
+        <v>7671383552</v>
       </c>
       <c r="H44" t="n">
-        <v>28.47541</v>
+        <v>27.999998</v>
       </c>
       <c r="I44" t="n">
-        <v>26.1203</v>
+        <v>25.894735</v>
       </c>
       <c r="J44" t="n">
-        <v>0.09016397208301585</v>
+        <v>0.08130081269416345</v>
       </c>
       <c r="K44" t="n">
         <v>373415008</v>
@@ -2653,16 +2653,16 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>8644156416</v>
+        <v>8561615872</v>
       </c>
       <c r="H45" t="n">
-        <v>15.911602</v>
+        <v>13.372434</v>
       </c>
       <c r="I45" t="n">
-        <v>15.278514</v>
+        <v>12.09549</v>
       </c>
       <c r="J45" t="n">
-        <v>0.04143649048592035</v>
+        <v>0.1055719115141263</v>
       </c>
       <c r="K45" t="n">
         <v>28673363968</v>
@@ -2703,16 +2703,16 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>36828008448</v>
+        <v>37404098560</v>
       </c>
       <c r="H46" t="n">
-        <v>14.628273</v>
+        <v>14.429319</v>
       </c>
       <c r="I46" t="n">
-        <v>16.630953</v>
+        <v>16.404762</v>
       </c>
       <c r="J46" t="n">
-        <v>-0.1204188358899217</v>
+        <v>-0.1204188759337077</v>
       </c>
       <c r="K46" t="n">
         <v>25972000768</v>
@@ -2753,16 +2753,16 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>7598484480</v>
+        <v>7259897856</v>
       </c>
       <c r="H47" t="n">
-        <v>55.675217</v>
+        <v>53.059326</v>
       </c>
       <c r="I47" t="n">
-        <v>130.28</v>
+        <v>125.22</v>
       </c>
       <c r="J47" t="n">
-        <v>-0.5726495471292601</v>
+        <v>-0.576271154767609</v>
       </c>
       <c r="K47" t="n">
         <v>1083652992</v>
@@ -2803,16 +2803,16 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>4531744256</v>
+        <v>4413059072</v>
       </c>
       <c r="H48" t="n">
-        <v>24.335033</v>
+        <v>24.212423</v>
       </c>
       <c r="I48" t="n">
-        <v>24.44938</v>
+        <v>23.809055</v>
       </c>
       <c r="J48" t="n">
-        <v>-0.004676887512076067</v>
+        <v>0.01694178958383685</v>
       </c>
       <c r="K48" t="n">
         <v>2094716032</v>
@@ -2853,16 +2853,16 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>4219078144</v>
+        <v>4193645056</v>
       </c>
       <c r="H49" t="n">
-        <v>19.853724</v>
+        <v>19.728998</v>
       </c>
       <c r="I49" t="n">
-        <v>18.477724</v>
+        <v>18.019802</v>
       </c>
       <c r="J49" t="n">
-        <v>0.0744680459563094</v>
+        <v>0.09485098670895509</v>
       </c>
       <c r="K49" t="n">
         <v>2556986880</v>
@@ -2903,16 +2903,16 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>8962759680</v>
+        <v>8992422912</v>
       </c>
       <c r="H50" t="n">
-        <v>36.590828</v>
+        <v>36.644688</v>
       </c>
       <c r="I50" t="n">
-        <v>16.743914</v>
+        <v>16.799328</v>
       </c>
       <c r="J50" t="n">
-        <v>1.185321066508106</v>
+        <v>1.181318681318682</v>
       </c>
       <c r="K50" t="n">
         <v>4253100032</v>
@@ -2953,16 +2953,16 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>5016880128</v>
+        <v>5129311744</v>
       </c>
       <c r="H51" t="n">
-        <v>16.733025</v>
+        <v>16.77898</v>
       </c>
       <c r="I51" t="n">
-        <v>15.467902</v>
+        <v>15.486447</v>
       </c>
       <c r="J51" t="n">
-        <v>0.08179021304893186</v>
+        <v>0.08346220408076821</v>
       </c>
       <c r="K51" t="n">
         <v>797865984</v>
@@ -3003,16 +3003,16 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>6786630656</v>
+        <v>6872884736</v>
       </c>
       <c r="H52" t="n">
-        <v>16.715025</v>
+        <v>16.620035</v>
       </c>
       <c r="I52" t="n">
-        <v>13.611814</v>
+        <v>13.534459</v>
       </c>
       <c r="J52" t="n">
-        <v>0.2279792392108795</v>
+        <v>0.227979263892262</v>
       </c>
       <c r="K52" t="n">
         <v>2829700096</v>
@@ -3053,16 +3053,16 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>6542285824</v>
+        <v>6486846976</v>
       </c>
       <c r="H53" t="n">
-        <v>19.976488</v>
+        <v>19.68652</v>
       </c>
       <c r="I53" t="n">
-        <v>19.136637</v>
+        <v>18.858858</v>
       </c>
       <c r="J53" t="n">
-        <v>0.04388707378417633</v>
+        <v>0.04388717492861982</v>
       </c>
       <c r="K53" t="n">
         <v>1929323008</v>
@@ -3103,16 +3103,16 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>4927555584</v>
+        <v>4885019648</v>
       </c>
       <c r="H54" t="n">
-        <v>22.74233</v>
+        <v>22.469137</v>
       </c>
       <c r="I54" t="n">
-        <v>26.47857</v>
+        <v>26.000002</v>
       </c>
       <c r="J54" t="n">
-        <v>-0.1411042967954841</v>
+        <v>-0.1358024895536546</v>
       </c>
       <c r="K54" t="n">
         <v>835529024</v>
@@ -3153,16 +3153,16 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>7795551232</v>
+        <v>7642762752</v>
       </c>
       <c r="H55" t="n">
-        <v>64.48611</v>
+        <v>62.31944</v>
       </c>
       <c r="I55" t="n">
-        <v>48.364586</v>
+        <v>46.739582</v>
       </c>
       <c r="J55" t="n">
-        <v>0.3333332368439996</v>
+        <v>0.3333332762796211</v>
       </c>
       <c r="K55" t="n">
         <v>929555008</v>
@@ -3203,16 +3203,16 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>7895129600</v>
+        <v>7718618624</v>
       </c>
       <c r="H56" t="n">
-        <v>10.34902</v>
+        <v>10.238095</v>
       </c>
       <c r="I56" t="n">
-        <v>9.738007</v>
+        <v>9.520295000000001</v>
       </c>
       <c r="J56" t="n">
-        <v>0.06274517978884186</v>
+        <v>0.0753968233127229</v>
       </c>
       <c r="K56" t="n">
         <v>1871956992</v>
@@ -3251,16 +3251,16 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>7814972928</v>
+        <v>7926900736</v>
       </c>
       <c r="H57" t="n">
-        <v>14.166668</v>
+        <v>14.232059</v>
       </c>
       <c r="I57" t="n">
-        <v>15.273438</v>
+        <v>15.492188</v>
       </c>
       <c r="J57" t="n">
-        <v>-0.07246371118277373</v>
+        <v>-0.08133964034002172</v>
       </c>
       <c r="K57" t="n">
         <v>1672232960</v>
@@ -3299,16 +3299,16 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>5594419712</v>
+        <v>5815152128</v>
       </c>
       <c r="H58" t="n">
-        <v>13.445122</v>
+        <v>13.97561</v>
       </c>
       <c r="I58" t="n">
-        <v>20.607475</v>
+        <v>21.420559</v>
       </c>
       <c r="J58" t="n">
-        <v>-0.3475609214617512</v>
+        <v>-0.3475609109920988</v>
       </c>
       <c r="K58" t="n">
         <v>1307905024</v>
@@ -3349,16 +3349,16 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>7455497216</v>
+        <v>7235624448</v>
       </c>
       <c r="H59" t="n">
-        <v>96.31883999999999</v>
+        <v>92.710144</v>
       </c>
       <c r="I59" t="n">
-        <v>69.95789000000001</v>
+        <v>67.336845</v>
       </c>
       <c r="J59" t="n">
-        <v>0.3768116791401226</v>
+        <v>0.3768115212407115</v>
       </c>
       <c r="K59" t="n">
         <v>2450670080</v>
@@ -3399,16 +3399,16 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>8779572224</v>
+        <v>8834366464</v>
       </c>
       <c r="H60" t="n">
-        <v>74.39285</v>
+        <v>73.86606999999999</v>
       </c>
       <c r="I60" t="n">
-        <v>47.611427</v>
+        <v>47.27429</v>
       </c>
       <c r="J60" t="n">
-        <v>0.5624999015467442</v>
+        <v>0.5624998281306814</v>
       </c>
       <c r="K60" t="n">
         <v>716080000</v>
@@ -3449,10 +3449,10 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>4110664192</v>
+        <v>4023432704</v>
       </c>
       <c r="H61" t="n">
-        <v>41.08205</v>
+        <v>40.626945</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -3495,16 +3495,16 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>4290341888</v>
+        <v>4076110592</v>
       </c>
       <c r="H62" t="n">
-        <v>30.571259</v>
+        <v>29.052692</v>
       </c>
       <c r="I62" t="n">
-        <v>22.048807</v>
+        <v>21.130722</v>
       </c>
       <c r="J62" t="n">
-        <v>0.3865266723954726</v>
+        <v>0.3749029493644374</v>
       </c>
       <c r="K62" t="n">
         <v>915769984</v>
@@ -3545,16 +3545,16 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>8072179712</v>
+        <v>8244571648</v>
       </c>
       <c r="H63" t="n">
-        <v>13.43576</v>
+        <v>13.7965555</v>
       </c>
       <c r="I63" t="n">
-        <v>14.574913</v>
+        <v>14.886179</v>
       </c>
       <c r="J63" t="n">
-        <v>-0.07815847682932997</v>
+        <v>-0.07319699030893023</v>
       </c>
       <c r="K63" t="n">
         <v>2079741056</v>
@@ -3593,16 +3593,16 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>8664593408</v>
+        <v>8470119936</v>
       </c>
       <c r="H64" t="n">
-        <v>59.55325</v>
+        <v>58.006027</v>
       </c>
       <c r="I64" t="n">
-        <v>51.349487</v>
+        <v>49.127552</v>
       </c>
       <c r="J64" t="n">
-        <v>0.1597632903323842</v>
+        <v>0.1807229271265134</v>
       </c>
       <c r="K64" t="n">
         <v>684780992</v>
@@ -3643,16 +3643,16 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>4367371264</v>
+        <v>4288071424</v>
       </c>
       <c r="H65" t="n">
-        <v>30.979168</v>
+        <v>30.229168</v>
       </c>
       <c r="I65" t="n">
-        <v>26.087719</v>
+        <v>25.45614</v>
       </c>
       <c r="J65" t="n">
-        <v>0.1875000646856093</v>
+        <v>0.1875000687456936</v>
       </c>
       <c r="K65" t="n">
         <v>863481984</v>
@@ -3693,16 +3693,16 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>6937202176</v>
+        <v>6843274752</v>
       </c>
       <c r="H66" t="n">
-        <v>26.725927</v>
+        <v>26.346863</v>
       </c>
       <c r="I66" t="n">
-        <v>18.939634</v>
+        <v>18.740158</v>
       </c>
       <c r="J66" t="n">
-        <v>0.4111110594850986</v>
+        <v>0.4059039950463597</v>
       </c>
       <c r="K66" t="n">
         <v>1346912000</v>
@@ -3743,16 +3743,16 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>4808227328</v>
+        <v>4697693184</v>
       </c>
       <c r="H67" t="n">
-        <v>21.453678</v>
+        <v>20.953167</v>
       </c>
       <c r="I67" t="n">
-        <v>20.91235</v>
+        <v>20.201859</v>
       </c>
       <c r="J67" t="n">
-        <v>0.0258855652282024</v>
+        <v>0.03719004275794635</v>
       </c>
       <c r="K67" t="n">
         <v>2086195968</v>
@@ -3793,16 +3793,16 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>8180691456</v>
+        <v>8006677504</v>
       </c>
       <c r="H68" t="n">
-        <v>31.71044</v>
+        <v>31.048586</v>
       </c>
       <c r="I68" t="n">
-        <v>30.250536</v>
+        <v>29.419699</v>
       </c>
       <c r="J68" t="n">
-        <v>0.04826043412916703</v>
+        <v>0.05536722180604214</v>
       </c>
       <c r="K68" t="n">
         <v>4993082880</v>
@@ -3843,16 +3843,16 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>5827469312</v>
+        <v>5801340928</v>
       </c>
       <c r="H69" t="n">
-        <v>14.093596</v>
+        <v>13.792271</v>
       </c>
       <c r="I69" t="n">
-        <v>16.073034</v>
+        <v>16.039326</v>
       </c>
       <c r="J69" t="n">
-        <v>-0.1231527289745048</v>
+        <v>-0.1400965975752347</v>
       </c>
       <c r="K69" t="n">
         <v>1574441984</v>
@@ -3893,16 +3893,16 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>4884848640</v>
+        <v>4967221760</v>
       </c>
       <c r="H70" t="n">
-        <v>28.96124</v>
+        <v>28.744188</v>
       </c>
       <c r="I70" t="n">
-        <v>10.20765</v>
+        <v>10.131147</v>
       </c>
       <c r="J70" t="n">
-        <v>1.837209347891043</v>
+        <v>1.837209646647117</v>
       </c>
       <c r="K70" t="n">
         <v>1482823040</v>
@@ -3943,16 +3943,16 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>4676328960</v>
+        <v>4611606528</v>
       </c>
       <c r="H71" t="n">
-        <v>56.276382</v>
+        <v>55.22</v>
       </c>
       <c r="I71" t="n">
-        <v>29.70557</v>
+        <v>29.29443</v>
       </c>
       <c r="J71" t="n">
-        <v>0.8944723834620913</v>
+        <v>0.8849999812250999</v>
       </c>
       <c r="K71" t="n">
         <v>1080600064</v>
@@ -3993,16 +3993,16 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>9622077440</v>
+        <v>9827490816</v>
       </c>
       <c r="H72" t="n">
-        <v>30.210144</v>
+        <v>30.791668</v>
       </c>
       <c r="I72" t="n">
-        <v>27.159609</v>
+        <v>27.682411</v>
       </c>
       <c r="J72" t="n">
-        <v>0.1123188113643314</v>
+        <v>0.1123188655785801</v>
       </c>
       <c r="K72" t="n">
         <v>4614837760</v>
@@ -4043,16 +4043,16 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>8579551232</v>
+        <v>8712667136</v>
       </c>
       <c r="H73" t="n">
-        <v>21.974321</v>
+        <v>21.427143</v>
       </c>
       <c r="I73" t="n">
-        <v>13.765862</v>
+        <v>13.403934</v>
       </c>
       <c r="J73" t="n">
-        <v>0.5962909551178124</v>
+        <v>0.5985712105117797</v>
       </c>
       <c r="K73" t="n">
         <v>5071012864</v>
@@ -4093,16 +4093,16 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>5575033856</v>
+        <v>5472251392</v>
       </c>
       <c r="H74" t="n">
-        <v>50.9151</v>
+        <v>49.947495</v>
       </c>
       <c r="I74" t="n">
-        <v>44.8815</v>
+        <v>43.509357</v>
       </c>
       <c r="J74" t="n">
-        <v>0.1344340095585042</v>
+        <v>0.1479713432676102</v>
       </c>
       <c r="K74" t="n">
         <v>1123852032</v>
@@ -4143,16 +4143,16 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>5980672512</v>
+        <v>5857482240</v>
       </c>
       <c r="H75" t="n">
-        <v>25.294117</v>
+        <v>24.7563</v>
       </c>
       <c r="I75" t="n">
-        <v>23.700788</v>
+        <v>23.19685</v>
       </c>
       <c r="J75" t="n">
-        <v>0.06722683650855821</v>
+        <v>0.06722680019054295</v>
       </c>
       <c r="K75" t="n">
         <v>503256000</v>
@@ -4193,16 +4193,16 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>4148874752</v>
+        <v>4070834432</v>
       </c>
       <c r="H76" t="n">
-        <v>25.02769</v>
+        <v>24.544891</v>
       </c>
       <c r="I76" t="n">
-        <v>24.874617</v>
+        <v>24.244648</v>
       </c>
       <c r="J76" t="n">
-        <v>0.006153783191918061</v>
+        <v>0.01238388777597432</v>
       </c>
       <c r="K76" t="n">
         <v>3268718080</v>
@@ -4243,16 +4243,16 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>6970907648</v>
+        <v>7048434176</v>
       </c>
       <c r="H77" t="n">
-        <v>29.765516</v>
+        <v>29.806896</v>
       </c>
       <c r="I77" t="n">
-        <v>22.83598</v>
+        <v>22.867725</v>
       </c>
       <c r="J77" t="n">
-        <v>0.3034481550605668</v>
+        <v>0.3034482441956949</v>
       </c>
       <c r="K77" t="n">
         <v>1968978048</v>
@@ -4293,16 +4293,16 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>5785802240</v>
+        <v>5785801728</v>
       </c>
       <c r="H78" t="n">
-        <v>12.488373</v>
+        <v>12.472869</v>
       </c>
       <c r="I78" t="n">
-        <v>11.425532</v>
+        <v>11.411348</v>
       </c>
       <c r="J78" t="n">
-        <v>0.09302332705382987</v>
+        <v>0.09302327823145862</v>
       </c>
       <c r="K78" t="n">
         <v>1546099968</v>
@@ -4341,16 +4341,16 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>8684740608</v>
+        <v>8604020736</v>
       </c>
       <c r="H79" t="n">
-        <v>25.331644</v>
+        <v>25.086075</v>
       </c>
       <c r="I79" t="n">
-        <v>32.592834</v>
+        <v>32.27687</v>
       </c>
       <c r="J79" t="n">
-        <v>-0.2227848612366756</v>
+        <v>-0.2227847681637036</v>
       </c>
       <c r="K79" t="n">
         <v>1239058944</v>
@@ -4391,16 +4391,16 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>7567375360</v>
+        <v>7465852416</v>
       </c>
       <c r="H80" t="n">
-        <v>34.674095</v>
+        <v>34.20891</v>
       </c>
       <c r="I80" t="n">
-        <v>33.372654</v>
+        <v>32.92493</v>
       </c>
       <c r="J80" t="n">
-        <v>0.03899722808980077</v>
+        <v>0.03899719756427733</v>
       </c>
       <c r="K80" t="n">
         <v>1974599936</v>
@@ -4441,16 +4441,16 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>4068025344</v>
+        <v>4002410496</v>
       </c>
       <c r="H81" t="n">
-        <v>11.629711</v>
+        <v>11.443459</v>
       </c>
       <c r="I81" t="n">
-        <v>12.699758</v>
+        <v>12.496367</v>
       </c>
       <c r="J81" t="n">
-        <v>-0.08425727482366197</v>
+        <v>-0.08425712849182476</v>
       </c>
       <c r="K81" t="n">
         <v>1681522944</v>
@@ -4491,16 +4491,16 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>4887945216</v>
+        <v>4866618880</v>
       </c>
       <c r="H82" t="n">
-        <v>20.105263</v>
+        <v>19.894737</v>
       </c>
       <c r="I82" t="n">
-        <v>20.963415</v>
+        <v>20.743902</v>
       </c>
       <c r="J82" t="n">
-        <v>-0.04093569678413567</v>
+        <v>-0.04093564460533994</v>
       </c>
       <c r="K82" t="n">
         <v>578401024</v>
@@ -4539,11 +4539,11 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>5943636480</v>
+        <v>5719498240</v>
       </c>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="n">
-        <v>45.384617</v>
+        <v>44.884617</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
@@ -4585,16 +4585,16 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>6602335232</v>
+        <v>6862310912</v>
       </c>
       <c r="H84" t="n">
-        <v>22.895386</v>
+        <v>23.796923</v>
       </c>
       <c r="I84" t="n">
-        <v>18.790405</v>
+        <v>19.530302</v>
       </c>
       <c r="J84" t="n">
-        <v>0.218461549924017</v>
+        <v>0.218461598801698</v>
       </c>
       <c r="K84" t="n">
         <v>3388176896</v>
@@ -4635,16 +4635,16 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>8876549120</v>
+        <v>8739733504</v>
       </c>
       <c r="H85" t="n">
-        <v>62.07348</v>
+        <v>61.288464</v>
       </c>
       <c r="I85" t="n">
-        <v>34.509766</v>
+        <v>33.964474</v>
       </c>
       <c r="J85" t="n">
-        <v>0.7987221356412559</v>
+        <v>0.8044873593508322</v>
       </c>
       <c r="K85" t="n">
         <v>5427949056</v>
@@ -4685,16 +4685,16 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>8828547072</v>
+        <v>8559318016</v>
       </c>
       <c r="H86" t="n">
-        <v>42.257732</v>
+        <v>39.664948</v>
       </c>
       <c r="I86" t="n">
-        <v>40.99</v>
+        <v>38.475</v>
       </c>
       <c r="J86" t="n">
-        <v>0.03092783605757488</v>
+        <v>0.03092782326185839</v>
       </c>
       <c r="K86" t="n">
         <v>4600231936</v>
@@ -4735,16 +4735,16 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>7377425920</v>
+        <v>7241412608</v>
       </c>
       <c r="H87" t="n">
-        <v>25.524887</v>
+        <v>24.280542</v>
       </c>
       <c r="I87" t="n">
-        <v>17.250765</v>
+        <v>16.409786</v>
       </c>
       <c r="J87" t="n">
-        <v>0.4796379754752904</v>
+        <v>0.4796379428714062</v>
       </c>
       <c r="K87" t="n">
         <v>4646069760</v>
@@ -4785,16 +4785,16 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>7118082048</v>
+        <v>7072816640</v>
       </c>
       <c r="H88" t="n">
-        <v>1.8216797</v>
+        <v>1.7542409</v>
       </c>
       <c r="I88" t="n">
-        <v>14.295455</v>
+        <v>13.766234</v>
       </c>
       <c r="J88" t="n">
-        <v>-0.8725693096162381</v>
+        <v>-0.8725692952771251</v>
       </c>
       <c r="K88" t="n">
         <v>16312999936</v>
@@ -4835,16 +4835,16 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>4937003520</v>
+        <v>4863426048</v>
       </c>
       <c r="H89" t="n">
-        <v>20.109793</v>
+        <v>19.810091</v>
       </c>
       <c r="I89" t="n">
-        <v>21.5828</v>
+        <v>21.261147</v>
       </c>
       <c r="J89" t="n">
-        <v>-0.06824911503604714</v>
+        <v>-0.06824918712052563</v>
       </c>
       <c r="K89" t="n">
         <v>1966000000</v>
@@ -4885,16 +4885,16 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>8482140160</v>
+        <v>8485850112</v>
       </c>
       <c r="H90" t="n">
-        <v>9.853448999999999</v>
+        <v>9.560345999999999</v>
       </c>
       <c r="I90" t="n">
-        <v>11.205883</v>
+        <v>10.872549</v>
       </c>
       <c r="J90" t="n">
-        <v>-0.1206896413250076</v>
+        <v>-0.1206895457541741</v>
       </c>
       <c r="K90" t="n">
         <v>15166000128</v>
@@ -4935,16 +4935,16 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>8574873600</v>
+        <v>8509706752</v>
       </c>
       <c r="H91" t="n">
-        <v>18.387821</v>
+        <v>18.169872</v>
       </c>
       <c r="I91" t="n">
-        <v>11.927235</v>
+        <v>11.785863</v>
       </c>
       <c r="J91" t="n">
-        <v>0.5416666981073148</v>
+        <v>0.5416666560607399</v>
       </c>
       <c r="K91" t="n">
         <v>3342801920</v>
@@ -4985,16 +4985,16 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>5850575360</v>
+        <v>5803154432</v>
       </c>
       <c r="H92" t="n">
-        <v>25.569948</v>
+        <v>25.284975</v>
       </c>
       <c r="I92" t="n">
-        <v>20.308641</v>
+        <v>20.082304</v>
       </c>
       <c r="J92" t="n">
-        <v>0.2590674087941187</v>
+        <v>0.259067435688654</v>
       </c>
       <c r="K92" t="n">
         <v>855046016</v>
@@ -5033,16 +5033,16 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>7664498688</v>
+        <v>7468665344</v>
       </c>
       <c r="H93" t="n">
-        <v>21.996124</v>
+        <v>21.356588</v>
       </c>
       <c r="I93" t="n">
-        <v>16.593567</v>
+        <v>16.11111</v>
       </c>
       <c r="J93" t="n">
-        <v>0.3255814135682822</v>
+        <v>0.3255814155573389</v>
       </c>
       <c r="K93" t="n">
         <v>2626460928</v>
@@ -5083,16 +5083,16 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>5080295936</v>
+        <v>5040141824</v>
       </c>
       <c r="H94" t="n">
-        <v>7.5601115</v>
+        <v>7.5018415</v>
       </c>
       <c r="I94" t="n">
-        <v>23.780409</v>
+        <v>23.695103</v>
       </c>
       <c r="J94" t="n">
-        <v>-0.6820865654581467</v>
+        <v>-0.6834011863126317</v>
       </c>
       <c r="K94" t="n">
         <v>4834649088</v>
@@ -5133,16 +5133,16 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>5972183552</v>
+        <v>6019089408</v>
       </c>
       <c r="H95" t="n">
-        <v>25.773335</v>
+        <v>25.975758</v>
       </c>
       <c r="I95" t="n">
-        <v>24.21754</v>
+        <v>24.407745</v>
       </c>
       <c r="J95" t="n">
-        <v>0.06424248705690183</v>
+        <v>0.06424243616114467</v>
       </c>
       <c r="K95" t="n">
         <v>1067673024</v>
@@ -5183,16 +5183,16 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>9073052672</v>
+        <v>8847308800</v>
       </c>
       <c r="H96" t="n">
-        <v>17.750572</v>
+        <v>16.926775</v>
       </c>
       <c r="I96" t="n">
-        <v>16.02686</v>
+        <v>15.283057</v>
       </c>
       <c r="J96" t="n">
-        <v>0.1075514480066588</v>
+        <v>0.1075516501705123</v>
       </c>
       <c r="K96" t="n">
         <v>1178672000</v>
@@ -5233,16 +5233,16 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>6295241216</v>
+        <v>6287371776</v>
       </c>
       <c r="H97" t="n">
-        <v>11.5898285</v>
+        <v>11.571429</v>
       </c>
       <c r="I97" t="n">
-        <v>12.789358</v>
+        <v>12.811225</v>
       </c>
       <c r="J97" t="n">
-        <v>-0.09379122079466384</v>
+        <v>-0.0967741960663403</v>
       </c>
       <c r="K97" t="n">
         <v>6407199744</v>
@@ -5283,11 +5283,11 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>6350462976</v>
+        <v>6300655616</v>
       </c>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="n">
-        <v>-42.500004</v>
+        <v>-42.09524</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
@@ -5329,16 +5329,16 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>8085771776</v>
+        <v>8284793344</v>
       </c>
       <c r="H99" t="n">
-        <v>56.878788</v>
+        <v>58.27879</v>
       </c>
       <c r="I99" t="n">
-        <v>25.433603</v>
+        <v>26.059622</v>
       </c>
       <c r="J99" t="n">
-        <v>1.236363758607068</v>
+        <v>1.236363597292394</v>
       </c>
       <c r="K99" t="n">
         <v>1268928000</v>
@@ -5379,16 +5379,16 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>7335426560</v>
+        <v>7404748288</v>
       </c>
       <c r="H100" t="n">
-        <v>12.981412</v>
+        <v>13.105263</v>
       </c>
       <c r="I100" t="n">
-        <v>12.382978</v>
+        <v>12.361703</v>
       </c>
       <c r="J100" t="n">
-        <v>0.04832714715313235</v>
+        <v>0.0601502883542826</v>
       </c>
       <c r="K100" t="n">
         <v>1570599936</v>
@@ -5429,16 +5429,16 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>12657096704</v>
+        <v>12035542016</v>
       </c>
       <c r="H101" t="n">
-        <v>70.88607</v>
+        <v>67.74074</v>
       </c>
       <c r="I101" t="n">
-        <v>121.73913</v>
+        <v>119.2826</v>
       </c>
       <c r="J101" t="n">
-        <v>-0.417721565777577</v>
+        <v>-0.4320987302422985</v>
       </c>
       <c r="K101" t="n">
         <v>2013538048</v>
@@ -5479,16 +5479,16 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>5662069760</v>
+        <v>5630537216</v>
       </c>
       <c r="H102" t="n">
-        <v>13.118721</v>
+        <v>13.045662</v>
       </c>
       <c r="I102" t="n">
-        <v>13.488262</v>
+        <v>13.413145</v>
       </c>
       <c r="J102" t="n">
-        <v>-0.02739722879048467</v>
+        <v>-0.02739722861416916</v>
       </c>
       <c r="K102" t="n">
         <v>1007568000</v>
@@ -5527,16 +5527,16 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>5640474112</v>
+        <v>5543323648</v>
       </c>
       <c r="H103" t="n">
-        <v>19.47826</v>
+        <v>19.123287</v>
       </c>
       <c r="I103" t="n">
-        <v>15.101124</v>
+        <v>15.685393</v>
       </c>
       <c r="J103" t="n">
-        <v>0.2898549803312653</v>
+        <v>0.2191780594850254</v>
       </c>
       <c r="K103" t="n">
         <v>2201999872</v>
@@ -5577,10 +5577,10 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>7689832448</v>
+        <v>7567330304</v>
       </c>
       <c r="H104" t="n">
-        <v>29.565647</v>
+        <v>29.074982</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -5623,16 +5623,16 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>7836486144</v>
+        <v>7840337920</v>
       </c>
       <c r="H105" t="n">
-        <v>11.923828</v>
+        <v>11.933925</v>
       </c>
       <c r="I105" t="n">
-        <v>10.990099</v>
+        <v>10.89199</v>
       </c>
       <c r="J105" t="n">
-        <v>0.08496092710356828</v>
+        <v>0.09566066439649701</v>
       </c>
       <c r="K105" t="n">
         <v>7315999744</v>
@@ -5673,16 +5673,16 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>6977180160</v>
+        <v>6911805440</v>
       </c>
       <c r="H106" t="n">
-        <v>28.64254</v>
+        <v>27.694878</v>
       </c>
       <c r="I106" t="n">
-        <v>21.687183</v>
+        <v>20.969646</v>
       </c>
       <c r="J106" t="n">
-        <v>0.3207127915137711</v>
+        <v>0.3207127101716452</v>
       </c>
       <c r="K106" t="n">
         <v>2955899904</v>
@@ -5723,16 +5723,16 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>4668856832</v>
+        <v>4531636224</v>
       </c>
       <c r="H107" t="n">
-        <v>8.825707</v>
+        <v>8.726087</v>
       </c>
       <c r="I107" t="n">
-        <v>10.1275</v>
+        <v>10.035</v>
       </c>
       <c r="J107" t="n">
-        <v>-0.1285404097753641</v>
+        <v>-0.1304347782760339</v>
       </c>
       <c r="K107" t="n">
         <v>5332897792</v>
@@ -5771,16 +5771,16 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>9010958336</v>
+        <v>8745451520</v>
       </c>
       <c r="H108" t="n">
-        <v>24.62835</v>
+        <v>24.089554</v>
       </c>
       <c r="I108" t="n">
-        <v>72.30435</v>
+        <v>70.17391000000001</v>
       </c>
       <c r="J108" t="n">
-        <v>-0.6593794149314667</v>
+        <v>-0.6567163779245022</v>
       </c>
       <c r="K108" t="n">
         <v>892584000</v>
@@ -5821,10 +5821,10 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>4314897408</v>
+        <v>4310545920</v>
       </c>
       <c r="H109" t="n">
-        <v>10.502269</v>
+        <v>10.481089</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -5865,16 +5865,16 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>5701940736</v>
+        <v>5628334592</v>
       </c>
       <c r="H110" t="n">
-        <v>21.319658</v>
+        <v>20.976068</v>
       </c>
       <c r="I110" t="n">
-        <v>25.195961</v>
+        <v>24.7899</v>
       </c>
       <c r="J110" t="n">
-        <v>-0.1538462057470243</v>
+        <v>-0.1538462034941649</v>
       </c>
       <c r="K110" t="n">
         <v>2442237952</v>
@@ -5915,16 +5915,16 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>6163783680</v>
+        <v>6378949632</v>
       </c>
       <c r="H111" t="n">
-        <v>15.044024</v>
+        <v>14.779874</v>
       </c>
       <c r="I111" t="n">
-        <v>12.329897</v>
+        <v>12.113401</v>
       </c>
       <c r="J111" t="n">
-        <v>0.2201256831261444</v>
+        <v>0.2201258754663533</v>
       </c>
       <c r="K111" t="n">
         <v>8047000064</v>
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>5294992896</v>
+        <v>5217353216</v>
       </c>
       <c r="H112" t="n">
-        <v>24.092392</v>
+        <v>23.813187</v>
       </c>
       <c r="I112" t="n">
-        <v>34.36434</v>
+        <v>33.5969</v>
       </c>
       <c r="J112" t="n">
-        <v>-0.2989130010935754</v>
+        <v>-0.2912088020025657</v>
       </c>
       <c r="K112" t="n">
         <v>1137053056</v>
@@ -6015,16 +6015,16 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>4820561920</v>
+        <v>4693896192</v>
       </c>
       <c r="H113" t="n">
-        <v>16.361742</v>
+        <v>15.931818</v>
       </c>
       <c r="I113" t="n">
-        <v>12.723123</v>
+        <v>12.388807</v>
       </c>
       <c r="J113" t="n">
-        <v>0.2859847381810268</v>
+        <v>0.2859848409939714</v>
       </c>
       <c r="K113" t="n">
         <v>3274577920</v>
@@ -6065,16 +6065,16 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>6402813952</v>
+        <v>6357369344</v>
       </c>
       <c r="H114" t="n">
-        <v>38.67647</v>
+        <v>38.362747</v>
       </c>
       <c r="I114" t="n">
-        <v>18.785715</v>
+        <v>18.633335</v>
       </c>
       <c r="J114" t="n">
-        <v>1.0588234198166</v>
+        <v>1.058823447332429</v>
       </c>
       <c r="K114" t="n">
         <v>7427258880</v>
@@ -6115,16 +6115,16 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>4448161792</v>
+        <v>4523742208</v>
       </c>
       <c r="H115" t="n">
-        <v>17.906042</v>
+        <v>17.77405</v>
       </c>
       <c r="I115" t="n">
-        <v>14.473779</v>
+        <v>14.367087</v>
       </c>
       <c r="J115" t="n">
-        <v>0.2371366178798224</v>
+        <v>0.2371366582522956</v>
       </c>
       <c r="K115" t="n">
         <v>2650638080</v>
@@ -6165,16 +6165,16 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>4774723584</v>
+        <v>4688762880</v>
       </c>
       <c r="H116" t="n">
-        <v>33.598778</v>
+        <v>32.754063</v>
       </c>
       <c r="I116" t="n">
-        <v>28.2</v>
+        <v>27.547009</v>
       </c>
       <c r="J116" t="n">
-        <v>0.1914460283687944</v>
+        <v>0.1890242966123836</v>
       </c>
       <c r="K116" t="n">
         <v>359204992</v>
@@ -6215,16 +6215,16 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>5296283136</v>
+        <v>5186828288</v>
       </c>
       <c r="H117" t="n">
-        <v>19.222603</v>
+        <v>18.400684</v>
       </c>
       <c r="I117" t="n">
-        <v>13.825124</v>
+        <v>13.233991</v>
       </c>
       <c r="J117" t="n">
-        <v>0.3904108925171303</v>
+        <v>0.3904107989796879</v>
       </c>
       <c r="K117" t="n">
         <v>3061170944</v>
@@ -6263,16 +6263,16 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>9135661056</v>
+        <v>9183139840</v>
       </c>
       <c r="H118" t="n">
-        <v>21.990477</v>
+        <v>21.72381</v>
       </c>
       <c r="I118" t="n">
-        <v>16.492857</v>
+        <v>16.292856</v>
       </c>
       <c r="J118" t="n">
-        <v>0.333333393965642</v>
+        <v>0.3333334560865204</v>
       </c>
       <c r="K118" t="n">
         <v>6489099776</v>
@@ -6313,11 +6313,11 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>4929999872</v>
+        <v>5190000128</v>
       </c>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="n">
-        <v>-16.433332</v>
+        <v>-17.3</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
@@ -6359,16 +6359,16 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>6144491008</v>
+        <v>6129091584</v>
       </c>
       <c r="H120" t="n">
-        <v>27.382353</v>
+        <v>27.39604</v>
       </c>
       <c r="I120" t="n">
-        <v>28.793814</v>
+        <v>28.525772</v>
       </c>
       <c r="J120" t="n">
-        <v>-0.04901959149975765</v>
+        <v>-0.03960390625010957</v>
       </c>
       <c r="K120" t="n">
         <v>2824026880</v>
@@ -6409,16 +6409,16 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>7327697920</v>
+        <v>7111955968</v>
       </c>
       <c r="H121" t="n">
-        <v>22.098734</v>
+        <v>21.432913</v>
       </c>
       <c r="I121" t="n">
-        <v>15.756318</v>
+        <v>15.2815895</v>
       </c>
       <c r="J121" t="n">
-        <v>0.402531606686283</v>
+        <v>0.4025316541842718</v>
       </c>
       <c r="K121" t="n">
         <v>3195000064</v>
@@ -6459,16 +6459,16 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>8567958528</v>
+        <v>8598977536</v>
       </c>
       <c r="H122" t="n">
-        <v>9.920154999999999</v>
+        <v>9.388493</v>
       </c>
       <c r="I122" t="n">
-        <v>9.5054035</v>
+        <v>9.003982000000001</v>
       </c>
       <c r="J122" t="n">
-        <v>0.04363323450708845</v>
+        <v>0.04270455005352081</v>
       </c>
       <c r="K122" t="n">
         <v>37155799040</v>
@@ -6509,16 +6509,16 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>7360599040</v>
+        <v>7271657472</v>
       </c>
       <c r="H123" t="n">
-        <v>170.91304</v>
+        <v>165.25531</v>
       </c>
       <c r="I123" t="n">
-        <v>117.343285</v>
+        <v>115.92537</v>
       </c>
       <c r="J123" t="n">
-        <v>0.4565216918888884</v>
+        <v>0.425531874515475</v>
       </c>
       <c r="K123" t="n">
         <v>451742016</v>
@@ -6559,16 +6559,16 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>5748584960</v>
+        <v>5698504192</v>
       </c>
       <c r="H124" t="n">
-        <v>10.572369</v>
+        <v>10.480264</v>
       </c>
       <c r="I124" t="n">
-        <v>16.65285</v>
+        <v>16.507772</v>
       </c>
       <c r="J124" t="n">
-        <v>-0.3651315540583143</v>
+        <v>-0.3651315271376415</v>
       </c>
       <c r="K124" t="n">
         <v>558286016</v>
@@ -6609,16 +6609,16 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>5493509632</v>
+        <v>5516064256</v>
       </c>
       <c r="H125" t="n">
-        <v>11.071428</v>
+        <v>10.818182</v>
       </c>
       <c r="I125" t="n">
-        <v>10.723269</v>
+        <v>10.477987</v>
       </c>
       <c r="J125" t="n">
-        <v>0.03246761785048924</v>
+        <v>0.03246759134173383</v>
       </c>
       <c r="K125" t="n">
         <v>5335499776</v>
@@ -6659,11 +6659,11 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>4521957888</v>
+        <v>4457735680</v>
       </c>
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="n">
-        <v>81.01075</v>
+        <v>78.63441</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
@@ -6705,16 +6705,16 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>8398670336</v>
+        <v>7984416256</v>
       </c>
       <c r="H127" t="n">
-        <v>8.914892999999999</v>
+        <v>8.371278</v>
       </c>
       <c r="I127" t="n">
-        <v>17.160408</v>
+        <v>16.313993</v>
       </c>
       <c r="J127" t="n">
-        <v>-0.4804964427419208</v>
+        <v>-0.4868651715125781</v>
       </c>
       <c r="K127" t="n">
         <v>5605000192</v>
@@ -6755,16 +6755,16 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>8631274496</v>
+        <v>8323686400</v>
       </c>
       <c r="H128" t="n">
-        <v>32.53671</v>
+        <v>30.949368</v>
       </c>
       <c r="I128" t="n">
-        <v>16.371975</v>
+        <v>15.573249</v>
       </c>
       <c r="J128" t="n">
-        <v>0.9873417837493645</v>
+        <v>0.9873417550827062</v>
       </c>
       <c r="K128" t="n">
         <v>3740999936</v>
@@ -6805,16 +6805,16 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>7670921728</v>
+        <v>7415819776</v>
       </c>
       <c r="H129" t="n">
-        <v>41.873924</v>
+        <v>40.45238</v>
       </c>
       <c r="I129" t="n">
-        <v>30.831224</v>
+        <v>28.675106</v>
       </c>
       <c r="J129" t="n">
-        <v>0.3581661240565734</v>
+        <v>0.4107142271767015</v>
       </c>
       <c r="K129" t="n">
         <v>2604800000</v>
@@ -6855,16 +6855,16 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>5623617024</v>
+        <v>5323186176</v>
       </c>
       <c r="H130" t="n">
-        <v>29.582678</v>
+        <v>28.031252</v>
       </c>
       <c r="I130" t="n">
-        <v>31.974468</v>
+        <v>30.536173</v>
       </c>
       <c r="J130" t="n">
-        <v>-0.07480312104019993</v>
+        <v>-0.0820312682928539</v>
       </c>
       <c r="K130" t="n">
         <v>1384443008</v>
@@ -6903,16 +6903,16 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>3957351936</v>
+        <v>3896397568</v>
       </c>
       <c r="H131" t="n">
-        <v>26.93617</v>
+        <v>26.5</v>
       </c>
       <c r="I131" t="n">
-        <v>19.476923</v>
+        <v>19.16154</v>
       </c>
       <c r="J131" t="n">
-        <v>0.3829787179422541</v>
+        <v>0.3829786123662295</v>
       </c>
       <c r="K131" t="n">
         <v>1397100032</v>
@@ -6953,16 +6953,16 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>4571281408</v>
+        <v>4596602880</v>
       </c>
       <c r="H132" t="n">
-        <v>13.963536</v>
+        <v>14.071428</v>
       </c>
       <c r="I132" t="n">
-        <v>21.418644</v>
+        <v>21.369492</v>
       </c>
       <c r="J132" t="n">
-        <v>-0.3480662921518282</v>
+        <v>-0.3415178985068995</v>
       </c>
       <c r="K132" t="n">
         <v>1559341952</v>
@@ -7001,16 +7001,16 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>7661534720</v>
+        <v>7758413824</v>
       </c>
       <c r="H133" t="n">
-        <v>16.14874</v>
+        <v>16.365906</v>
       </c>
       <c r="I133" t="n">
-        <v>31.578234</v>
+        <v>31.977535</v>
       </c>
       <c r="J133" t="n">
-        <v>-0.4886116810712087</v>
+        <v>-0.4882061422182792</v>
       </c>
       <c r="K133" t="n">
         <v>2779048960</v>
@@ -7051,16 +7051,16 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>17762232320</v>
+        <v>17639933952</v>
       </c>
       <c r="H134" t="n">
-        <v>40.190475</v>
+        <v>39.77381</v>
       </c>
       <c r="I134" t="n">
-        <v>29.907598</v>
+        <v>29.59754</v>
       </c>
       <c r="J134" t="n">
-        <v>0.343821559992882</v>
+        <v>0.3438214797581149</v>
       </c>
       <c r="K134" t="n">
         <v>8451999744</v>
@@ -7101,16 +7101,16 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>6125603840</v>
+        <v>6041932800</v>
       </c>
       <c r="H135" t="n">
-        <v>10.562468</v>
+        <v>10.350053</v>
       </c>
       <c r="I135" t="n">
-        <v>13.044545</v>
+        <v>12.788897</v>
       </c>
       <c r="J135" t="n">
-        <v>-0.1902770085119871</v>
+        <v>-0.1907001049425919</v>
       </c>
       <c r="K135" t="n">
         <v>5315999744</v>
@@ -7151,16 +7151,16 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>9195191296</v>
+        <v>9369452544</v>
       </c>
       <c r="H136" t="n">
-        <v>17.772076</v>
+        <v>18.187885</v>
       </c>
       <c r="I136" t="n">
-        <v>12.237469</v>
+        <v>12.090386</v>
       </c>
       <c r="J136" t="n">
-        <v>0.4522672948139845</v>
+        <v>0.5043262473174968</v>
       </c>
       <c r="K136" t="n">
         <v>2838467072</v>
@@ -7201,16 +7201,16 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>9352683520</v>
+        <v>9101824000</v>
       </c>
       <c r="H137" t="n">
-        <v>42.939228</v>
+        <v>41.64858</v>
       </c>
       <c r="I137" t="n">
-        <v>41.23077</v>
+        <v>40.709553</v>
       </c>
       <c r="J137" t="n">
-        <v>0.04143648057021498</v>
+        <v>0.02306650235142604</v>
       </c>
       <c r="K137" t="n">
         <v>807084992</v>
@@ -7251,16 +7251,16 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>10207137792</v>
+        <v>10269254656</v>
       </c>
       <c r="H138" t="n">
-        <v>11.670455</v>
+        <v>11.740741</v>
       </c>
       <c r="I138" t="n">
-        <v>12.877744</v>
+        <v>12.918495</v>
       </c>
       <c r="J138" t="n">
-        <v>-0.09375003882667643</v>
+        <v>-0.09116805014825646</v>
       </c>
       <c r="K138" t="n">
         <v>8666399744</v>
@@ -7301,16 +7301,16 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>7185713152</v>
+        <v>6987198976</v>
       </c>
       <c r="H139" t="n">
-        <v>10.884685</v>
+        <v>10.59099</v>
       </c>
       <c r="I139" t="n">
-        <v>8.704611</v>
+        <v>8.46974</v>
       </c>
       <c r="J139" t="n">
-        <v>0.2504504796365972</v>
+        <v>0.2504504270497088</v>
       </c>
       <c r="K139" t="n">
         <v>2759000064</v>
@@ -7349,13 +7349,13 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>4495572992</v>
+        <v>4463114240</v>
       </c>
       <c r="H140" t="n">
-        <v>21.984127</v>
+        <v>21.285715</v>
       </c>
       <c r="I140" t="n">
-        <v>21.984127</v>
+        <v>21.285715</v>
       </c>
       <c r="J140" t="n">
         <v>0</v>
@@ -7399,16 +7399,16 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>9269910528</v>
+        <v>9036025856</v>
       </c>
       <c r="H141" t="n">
-        <v>41.835857</v>
+        <v>40.850372</v>
       </c>
       <c r="I141" t="n">
-        <v>23.105997</v>
+        <v>22.846582</v>
       </c>
       <c r="J141" t="n">
-        <v>0.8106060084747695</v>
+        <v>0.7880299118704057</v>
       </c>
       <c r="K141" t="n">
         <v>1595220992</v>
@@ -7449,16 +7449,16 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>4054805760</v>
+        <v>3967120640</v>
       </c>
       <c r="H142" t="n">
-        <v>73.56818</v>
+        <v>72.11628</v>
       </c>
       <c r="I142" t="n">
-        <v>64.73999999999999</v>
+        <v>62.02</v>
       </c>
       <c r="J142" t="n">
-        <v>0.136363608279271</v>
+        <v>0.1627907126733312</v>
       </c>
       <c r="K142" t="n">
         <v>1044760000</v>
@@ -7499,16 +7499,16 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>4843456000</v>
+        <v>4742406144</v>
       </c>
       <c r="H143" t="n">
-        <v>63.21818</v>
+        <v>62.290905</v>
       </c>
       <c r="I143" t="n">
-        <v>62.089287</v>
+        <v>61.17857</v>
       </c>
       <c r="J143" t="n">
-        <v>0.01818176781447023</v>
+        <v>0.01818177508889152</v>
       </c>
       <c r="K143" t="n">
         <v>694638976</v>
@@ -7549,16 +7549,16 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>7374780928</v>
+        <v>7384863744</v>
       </c>
       <c r="H144" t="n">
-        <v>12.643618</v>
+        <v>12.660904</v>
       </c>
       <c r="I144" t="n">
-        <v>12.461337</v>
+        <v>12.4783745</v>
       </c>
       <c r="J144" t="n">
-        <v>0.01462772413586122</v>
+        <v>0.01462766644806179</v>
       </c>
       <c r="K144" t="n">
         <v>1812786944</v>
@@ -7597,16 +7597,16 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>6417596928</v>
+        <v>6228131328</v>
       </c>
       <c r="H145" t="n">
-        <v>30.56192</v>
+        <v>29.67662</v>
       </c>
       <c r="I145" t="n">
-        <v>24.511486</v>
+        <v>23.500675</v>
       </c>
       <c r="J145" t="n">
-        <v>0.2468407668143824</v>
+        <v>0.2627986217417158</v>
       </c>
       <c r="K145" t="n">
         <v>1597729024</v>
@@ -7645,16 +7645,16 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>7355357696</v>
+        <v>7236939776</v>
       </c>
       <c r="H146" t="n">
-        <v>31.749573</v>
+        <v>31.127148</v>
       </c>
       <c r="I146" t="n">
-        <v>34.99055</v>
+        <v>34.245747</v>
       </c>
       <c r="J146" t="n">
-        <v>-0.09262435143202941</v>
+        <v>-0.09106529345089198</v>
       </c>
       <c r="K146" t="n">
         <v>1537017984</v>
@@ -7693,16 +7693,16 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>8371972608</v>
+        <v>8696272896</v>
       </c>
       <c r="H147" t="n">
-        <v>44.370537</v>
+        <v>46.15625</v>
       </c>
       <c r="I147" t="n">
-        <v>34.03767</v>
+        <v>35.40753</v>
       </c>
       <c r="J147" t="n">
-        <v>0.3035715135612984</v>
+        <v>0.3035715849142824</v>
       </c>
       <c r="K147" t="n">
         <v>1166488960</v>
@@ -7743,16 +7743,16 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>4298177536</v>
+        <v>4226103552</v>
       </c>
       <c r="H148" t="n">
-        <v>7.6061783</v>
+        <v>7.425197</v>
       </c>
       <c r="I148" t="n">
-        <v>6.588629</v>
+        <v>6.3076925</v>
       </c>
       <c r="J148" t="n">
-        <v>0.1544402181394642</v>
+        <v>0.1771653421595931</v>
       </c>
       <c r="K148" t="n">
         <v>218823999488</v>
@@ -7793,16 +7793,16 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>8581669376</v>
+        <v>8582345728</v>
       </c>
       <c r="H149" t="n">
-        <v>12.32846</v>
+        <v>12.329125</v>
       </c>
       <c r="I149" t="n">
-        <v>12.674349</v>
+        <v>12.724449</v>
       </c>
       <c r="J149" t="n">
-        <v>-0.02729047464291856</v>
+        <v>-0.03106806432247089</v>
       </c>
       <c r="K149" t="n">
         <v>2799129088</v>
@@ -7841,16 +7841,16 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>5673193984</v>
+        <v>5792697856</v>
       </c>
       <c r="H150" t="n">
-        <v>17.761906</v>
+        <v>17.913265</v>
       </c>
       <c r="I150" t="n">
-        <v>16.551506</v>
+        <v>16.692553</v>
       </c>
       <c r="J150" t="n">
-        <v>0.07312929711652827</v>
+        <v>0.07312913728654924</v>
       </c>
       <c r="K150" t="n">
         <v>7921200128</v>
@@ -7891,16 +7891,16 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>7150212608</v>
+        <v>7027063296</v>
       </c>
       <c r="H151" t="n">
-        <v>30.086365</v>
+        <v>29.493181</v>
       </c>
       <c r="I151" t="n">
-        <v>33.77041</v>
+        <v>33.10459</v>
       </c>
       <c r="J151" t="n">
-        <v>-0.1090909171668333</v>
+        <v>-0.1090908843758525</v>
       </c>
       <c r="K151" t="n">
         <v>6929273856</v>
@@ -7941,16 +7941,16 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>6186428416</v>
+        <v>6275728384</v>
       </c>
       <c r="H152" t="n">
-        <v>11.84</v>
+        <v>11.881294</v>
       </c>
       <c r="I152" t="n">
-        <v>11.208262</v>
+        <v>11.370051</v>
       </c>
       <c r="J152" t="n">
-        <v>0.05636360035124088</v>
+        <v>0.04496400236023579</v>
       </c>
       <c r="K152" t="n">
         <v>1227788032</v>
@@ -7989,16 +7989,16 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>4868251136</v>
+        <v>4914454016</v>
       </c>
       <c r="H153" t="n">
-        <v>26.866533</v>
+        <v>26.964144</v>
       </c>
       <c r="I153" t="n">
-        <v>22.219109</v>
+        <v>22.299835</v>
       </c>
       <c r="J153" t="n">
-        <v>0.2091633827441055</v>
+        <v>0.2091633861864897</v>
       </c>
       <c r="K153" t="n">
         <v>637019008</v>
@@ -8039,16 +8039,16 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>11041278976</v>
+        <v>10841153536</v>
       </c>
       <c r="H154" t="n">
-        <v>48.635075</v>
+        <v>47.75356</v>
       </c>
       <c r="I154" t="n">
-        <v>41.885715</v>
+        <v>41.12653</v>
       </c>
       <c r="J154" t="n">
-        <v>0.1611375143052949</v>
+        <v>0.161137591719992</v>
       </c>
       <c r="K154" t="n">
         <v>645488000</v>
@@ -8089,16 +8089,16 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>8512949760</v>
+        <v>8889291776</v>
       </c>
       <c r="H155" t="n">
-        <v>17.959799</v>
+        <v>18.753769</v>
       </c>
       <c r="I155" t="n">
-        <v>12.03367</v>
+        <v>12.565657</v>
       </c>
       <c r="J155" t="n">
-        <v>0.4924623161512656</v>
+        <v>0.4924622723666576</v>
       </c>
       <c r="K155" t="n">
         <v>2799229440</v>
@@ -8139,16 +8139,16 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>4040334848</v>
+        <v>4090311936</v>
       </c>
       <c r="H156" t="n">
-        <v>10.431452</v>
+        <v>10.544716</v>
       </c>
       <c r="I156" t="n">
-        <v>49.750004</v>
+        <v>49.884617</v>
       </c>
       <c r="J156" t="n">
-        <v>-0.7903225897228068</v>
+        <v>-0.788617881941441</v>
       </c>
       <c r="K156" t="n">
         <v>1239943040</v>
@@ -8189,16 +8189,16 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>6309275136</v>
+        <v>6249850368</v>
       </c>
       <c r="H157" t="n">
-        <v>21.017065</v>
+        <v>20.826387</v>
       </c>
       <c r="I157" t="n">
-        <v>25.134695</v>
+        <v>24.481632</v>
       </c>
       <c r="J157" t="n">
-        <v>-0.1638225568283205</v>
+        <v>-0.1493056100181557</v>
       </c>
       <c r="K157" t="n">
         <v>1987844992</v>
@@ -8239,16 +8239,16 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>10340204544</v>
+        <v>10225123328</v>
       </c>
       <c r="H158" t="n">
-        <v>31.514925</v>
+        <v>31.037313</v>
       </c>
       <c r="I158" t="n">
-        <v>32.23664</v>
+        <v>31.748093</v>
       </c>
       <c r="J158" t="n">
-        <v>-0.02238803423681868</v>
+        <v>-0.0223881163507994</v>
       </c>
       <c r="K158" t="n">
         <v>986531968</v>
@@ -8289,16 +8289,16 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>7613572096</v>
+        <v>7529543168</v>
       </c>
       <c r="H159" t="n">
-        <v>15.871598</v>
+        <v>15.696428</v>
       </c>
       <c r="I159" t="n">
-        <v>13.724264</v>
+        <v>13.572793</v>
       </c>
       <c r="J159" t="n">
-        <v>0.1564625979214624</v>
+        <v>0.1564626381615042</v>
       </c>
       <c r="K159" t="n">
         <v>12675999744</v>
@@ -8339,16 +8339,16 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>4493705216</v>
+        <v>4476919808</v>
       </c>
       <c r="H160" t="n">
-        <v>24.657894</v>
+        <v>24.56579</v>
       </c>
       <c r="I160" t="n">
-        <v>27.558823</v>
+        <v>27.455883</v>
       </c>
       <c r="J160" t="n">
-        <v>-0.1052631674436895</v>
+        <v>-0.1052631598116878</v>
       </c>
       <c r="K160" t="n">
         <v>734008000</v>
@@ -8389,16 +8389,16 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>6260389888</v>
+        <v>6030201344</v>
       </c>
       <c r="H161" t="n">
-        <v>25.158457</v>
+        <v>24.22698</v>
       </c>
       <c r="I161" t="n">
-        <v>17.720964</v>
+        <v>17.064856</v>
       </c>
       <c r="J161" t="n">
-        <v>0.4197002488126493</v>
+        <v>0.4197002306963507</v>
       </c>
       <c r="K161" t="n">
         <v>8049495040</v>
@@ -8439,16 +8439,16 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>3852280576</v>
+        <v>3783928320</v>
       </c>
       <c r="H162" t="n">
-        <v>31.4</v>
+        <v>30.84058</v>
       </c>
       <c r="I162" t="n">
-        <v>19.113043</v>
+        <v>18.504349</v>
       </c>
       <c r="J162" t="n">
-        <v>0.6428571839659438</v>
+        <v>0.66666657659775</v>
       </c>
       <c r="K162" t="n">
         <v>5477100032</v>
@@ -8489,16 +8489,16 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>4471117824</v>
+        <v>4433251328</v>
       </c>
       <c r="H163" t="n">
-        <v>40.933334</v>
+        <v>40.726025</v>
       </c>
       <c r="I163" t="n">
-        <v>9.136906</v>
+        <v>8.848214</v>
       </c>
       <c r="J163" t="n">
-        <v>3.479999465902353</v>
+        <v>3.602739603721157</v>
       </c>
       <c r="K163" t="n">
         <v>3745158912</v>
@@ -8539,16 +8539,16 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>4264873984</v>
+        <v>4210093312</v>
       </c>
       <c r="H164" t="n">
-        <v>31.681387</v>
+        <v>30.51104</v>
       </c>
       <c r="I164" t="n">
-        <v>29.194767</v>
+        <v>28.11628</v>
       </c>
       <c r="J164" t="n">
-        <v>0.08517348331637664</v>
+        <v>0.085173429770937</v>
       </c>
       <c r="K164" t="n">
         <v>1575587968</v>
@@ -8589,16 +8589,16 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>4552057856</v>
+        <v>4525294592</v>
       </c>
       <c r="H165" t="n">
-        <v>18.236322</v>
+        <v>18.121683</v>
       </c>
       <c r="I165" t="n">
-        <v>16.470356</v>
+        <v>16.187748</v>
       </c>
       <c r="J165" t="n">
-        <v>0.1072208761000675</v>
+        <v>0.1194690577095716</v>
       </c>
       <c r="K165" t="n">
         <v>488391008</v>
@@ -8637,16 +8637,16 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>7408759296</v>
+        <v>7156730368</v>
       </c>
       <c r="H166" t="n">
-        <v>31.496239</v>
+        <v>30.450382</v>
       </c>
       <c r="I166" t="n">
-        <v>17.41788</v>
+        <v>16.586279</v>
       </c>
       <c r="J166" t="n">
-        <v>0.8082705243117991</v>
+        <v>0.8358778361319015</v>
       </c>
       <c r="K166" t="n">
         <v>3610700032</v>
@@ -8687,16 +8687,16 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>7465310720</v>
+        <v>7347117568</v>
       </c>
       <c r="H167" t="n">
-        <v>22.821882</v>
+        <v>22.478544</v>
       </c>
       <c r="I167" t="n">
-        <v>21.20331</v>
+        <v>20.432625</v>
       </c>
       <c r="J167" t="n">
-        <v>0.07633581737945638</v>
+        <v>0.1001300126635709</v>
       </c>
       <c r="K167" t="n">
         <v>2274532096</v>
@@ -8783,16 +8783,16 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>4162998016</v>
+        <v>4155326464</v>
       </c>
       <c r="H169" t="n">
-        <v>10.509684</v>
+        <v>10.358817</v>
       </c>
       <c r="I169" t="n">
-        <v>12.347304</v>
+        <v>12.170059</v>
       </c>
       <c r="J169" t="n">
-        <v>-0.1488276307119352</v>
+        <v>-0.1488277090521911</v>
       </c>
       <c r="K169" t="n">
         <v>3840869888</v>
@@ -8833,16 +8833,16 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>5715155968</v>
+        <v>5710117376</v>
       </c>
       <c r="H170" t="n">
-        <v>29.51673</v>
+        <v>29.537878</v>
       </c>
       <c r="I170" t="n">
-        <v>21.753424</v>
+        <v>21.364384</v>
       </c>
       <c r="J170" t="n">
-        <v>0.3568774276638014</v>
+        <v>0.3825756923298138</v>
       </c>
       <c r="K170" t="n">
         <v>4766188032</v>
@@ -8883,16 +8883,16 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>8902225920</v>
+        <v>8742412288</v>
       </c>
       <c r="H171" t="n">
-        <v>75.2</v>
+        <v>73.299995</v>
       </c>
       <c r="I171" t="n">
-        <v>115.692314</v>
+        <v>112.76923</v>
       </c>
       <c r="J171" t="n">
-        <v>-0.3500000354388279</v>
+        <v>-0.3500000399045023</v>
       </c>
       <c r="K171" t="n">
         <v>1191262976</v>
@@ -8933,16 +8933,16 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>4069884416</v>
+        <v>4074812928</v>
       </c>
       <c r="H172" t="n">
-        <v>49.247704</v>
+        <v>48.1422</v>
       </c>
       <c r="I172" t="n">
-        <v>27.528204</v>
+        <v>26.910255</v>
       </c>
       <c r="J172" t="n">
-        <v>0.7889908110242136</v>
+        <v>0.7889908512572625</v>
       </c>
       <c r="K172" t="n">
         <v>703542016</v>
@@ -8983,16 +8983,16 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>9270765568</v>
+        <v>9040972800</v>
       </c>
       <c r="H173" t="n">
-        <v>41.68889</v>
+        <v>40.83705</v>
       </c>
       <c r="I173" t="n">
-        <v>29.777779</v>
+        <v>29.03968</v>
       </c>
       <c r="J173" t="n">
-        <v>0.3999999798507472</v>
+        <v>0.40625</v>
       </c>
       <c r="K173" t="n">
         <v>2052400000</v>
@@ -9033,16 +9033,16 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>6714407424</v>
+        <v>6605710848</v>
       </c>
       <c r="H174" t="n">
-        <v>27.72441</v>
+        <v>27.181103</v>
       </c>
       <c r="I174" t="n">
-        <v>40.011364</v>
+        <v>39.227272</v>
       </c>
       <c r="J174" t="n">
-        <v>-0.307086606695038</v>
+        <v>-0.307086585067654</v>
       </c>
       <c r="K174" t="n">
         <v>803230976</v>
@@ -9083,16 +9083,16 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>7557378560</v>
+        <v>7523471872</v>
       </c>
       <c r="H175" t="n">
-        <v>18.574074</v>
+        <v>18.499998</v>
       </c>
       <c r="I175" t="n">
-        <v>10.182741</v>
+        <v>10.142132</v>
       </c>
       <c r="J175" t="n">
-        <v>0.8240740877137107</v>
+        <v>0.8240738732250774</v>
       </c>
       <c r="K175" t="n">
         <v>342353984</v>
@@ -9131,16 +9131,16 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>11311309824</v>
+        <v>10465942528</v>
       </c>
       <c r="H176" t="n">
-        <v>40.505444</v>
+        <v>36.747013</v>
       </c>
       <c r="I176" t="n">
-        <v>59.304626</v>
+        <v>53.977673</v>
       </c>
       <c r="J176" t="n">
-        <v>-0.3169935175040139</v>
+        <v>-0.3192182812326867</v>
       </c>
       <c r="K176" t="n">
         <v>2137991040</v>
@@ -9181,16 +9181,16 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>5018601984</v>
+        <v>4991471616</v>
       </c>
       <c r="H177" t="n">
-        <v>16.386713</v>
+        <v>16.325937</v>
       </c>
       <c r="I177" t="n">
-        <v>12.91141</v>
+        <v>12.841611</v>
       </c>
       <c r="J177" t="n">
-        <v>0.2691652577061685</v>
+        <v>0.2713309101171184</v>
       </c>
       <c r="K177" t="n">
         <v>129411801088</v>
@@ -9229,16 +9229,16 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>6285330432</v>
+        <v>6439769600</v>
       </c>
       <c r="H178" t="n">
-        <v>24.197279</v>
+        <v>24.808405</v>
       </c>
       <c r="I178" t="n">
-        <v>19.597795</v>
+        <v>20.331955</v>
       </c>
       <c r="J178" t="n">
-        <v>0.2346939540902433</v>
+        <v>0.2201682032052501</v>
       </c>
       <c r="K178" t="n">
         <v>2405317120</v>
@@ -9279,16 +9279,16 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>6521675264</v>
+        <v>6563189248</v>
       </c>
       <c r="H179" t="n">
-        <v>7.6277466</v>
+        <v>7.527168</v>
       </c>
       <c r="I179" t="n">
-        <v>7.102261</v>
+        <v>7.0086117</v>
       </c>
       <c r="J179" t="n">
-        <v>0.07398849464980239</v>
+        <v>0.07398844766931512</v>
       </c>
       <c r="K179" t="n">
         <v>8403420160</v>
@@ -9329,11 +9329,11 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>4301000192</v>
+        <v>4291800064</v>
       </c>
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="n">
-        <v>-220</v>
+        <v>-220.29411</v>
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="n">
@@ -9375,16 +9375,16 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>6036944896</v>
+        <v>5932610560</v>
       </c>
       <c r="H181" t="n">
-        <v>23.098814</v>
+        <v>22.699606</v>
       </c>
       <c r="I181" t="n">
-        <v>35.634148</v>
+        <v>35.01829</v>
       </c>
       <c r="J181" t="n">
-        <v>-0.3517786927303552</v>
+        <v>-0.3517785705698365</v>
       </c>
       <c r="K181" t="n">
         <v>425998016</v>
@@ -9425,16 +9425,16 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>9435350016</v>
+        <v>9367422976</v>
       </c>
       <c r="H182" t="n">
-        <v>30.025908</v>
+        <v>29.79897</v>
       </c>
       <c r="I182" t="n">
-        <v>27.860579</v>
+        <v>27.79327</v>
       </c>
       <c r="J182" t="n">
-        <v>0.07772017229074812</v>
+        <v>0.07216495216287977</v>
       </c>
       <c r="K182" t="n">
         <v>2661489920</v>
@@ -9475,16 +9475,16 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>7546149888</v>
+        <v>7481560576</v>
       </c>
       <c r="H183" t="n">
-        <v>23.43769</v>
+        <v>23.00304</v>
       </c>
       <c r="I183" t="n">
-        <v>16.799564</v>
+        <v>16.488016</v>
       </c>
       <c r="J183" t="n">
-        <v>0.3951368023598707</v>
+        <v>0.3951369285425246</v>
       </c>
       <c r="K183" t="n">
         <v>4520200192</v>
@@ -9525,16 +9525,16 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>3966102784</v>
+        <v>3877042688</v>
       </c>
       <c r="H184" t="n">
-        <v>10.555363</v>
+        <v>10.372174</v>
       </c>
       <c r="I184" t="n">
-        <v>9.653480999999999</v>
+        <v>9.436707999999999</v>
       </c>
       <c r="J184" t="n">
-        <v>0.09342557363504422</v>
+        <v>0.0991305442533561</v>
       </c>
       <c r="K184" t="n">
         <v>3915000064</v>
@@ -9575,16 +9575,16 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>5841332736</v>
+        <v>5631606272</v>
       </c>
       <c r="H185" t="n">
-        <v>63.52809</v>
+        <v>61.24719</v>
       </c>
       <c r="I185" t="n">
-        <v>28.700508</v>
+        <v>27.67005</v>
       </c>
       <c r="J185" t="n">
-        <v>1.213483120229091</v>
+        <v>1.213483170431568</v>
       </c>
       <c r="K185" t="n">
         <v>2646791936</v>
@@ -9625,16 +9625,16 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>9103038464</v>
+        <v>9020276736</v>
       </c>
       <c r="H186" t="n">
-        <v>13.577577</v>
+        <v>13.454134</v>
       </c>
       <c r="I186" t="n">
-        <v>12.989166</v>
+        <v>12.871074</v>
       </c>
       <c r="J186" t="n">
-        <v>0.0453001370526791</v>
+        <v>0.045300027021832</v>
       </c>
       <c r="K186" t="n">
         <v>1949350016</v>
@@ -9673,16 +9673,16 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>5262194688</v>
+        <v>5316020224</v>
       </c>
       <c r="H187" t="n">
-        <v>13.080987</v>
+        <v>13.18728</v>
       </c>
       <c r="I187" t="n">
-        <v>13.7084875</v>
+        <v>13.771217</v>
       </c>
       <c r="J187" t="n">
-        <v>-0.04577459767169789</v>
+        <v>-0.04240271575126586</v>
       </c>
       <c r="K187" t="n">
         <v>1071104000</v>
@@ -9721,16 +9721,16 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>3814298112</v>
+        <v>3843451904</v>
       </c>
       <c r="H188" t="n">
-        <v>14.272727</v>
+        <v>14.316742</v>
       </c>
       <c r="I188" t="n">
-        <v>13.593074</v>
+        <v>13.69697</v>
       </c>
       <c r="J188" t="n">
-        <v>0.04999994850318634</v>
+        <v>0.04524883970688398</v>
       </c>
       <c r="K188" t="n">
         <v>922993984</v>
@@ -9769,16 +9769,16 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>6988474368</v>
+        <v>6984195584</v>
       </c>
       <c r="H189" t="n">
-        <v>28.714846</v>
+        <v>28.576172</v>
       </c>
       <c r="I189" t="n">
-        <v>27.480375</v>
+        <v>27.347664</v>
       </c>
       <c r="J189" t="n">
-        <v>0.0449219124557072</v>
+        <v>0.04492186243037066</v>
       </c>
       <c r="K189" t="n">
         <v>661990976</v>
@@ -9819,16 +9819,16 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>6462734848</v>
+        <v>6391873536</v>
       </c>
       <c r="H190" t="n">
-        <v>14.127452</v>
+        <v>13.972549</v>
       </c>
       <c r="I190" t="n">
-        <v>18.714287</v>
+        <v>18.509092</v>
       </c>
       <c r="J190" t="n">
-        <v>-0.245098036596318</v>
+        <v>-0.2450980847682857</v>
       </c>
       <c r="K190" t="n">
         <v>5832230912</v>
@@ -9869,16 +9869,16 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>6050584576</v>
+        <v>6022597632</v>
       </c>
       <c r="H191" t="n">
-        <v>13.858975</v>
+        <v>13.653846</v>
       </c>
       <c r="I191" t="n">
-        <v>11.623656</v>
+        <v>11.451612</v>
       </c>
       <c r="J191" t="n">
-        <v>0.19230773863232</v>
+        <v>0.1923077729144158</v>
       </c>
       <c r="K191" t="n">
         <v>1603357952</v>
@@ -9917,16 +9917,16 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>4782060032</v>
+        <v>4679096832</v>
       </c>
       <c r="H192" t="n">
-        <v>17.558685</v>
+        <v>17.200933</v>
       </c>
       <c r="I192" t="n">
-        <v>20.662985</v>
+        <v>20.337017</v>
       </c>
       <c r="J192" t="n">
-        <v>-0.1502348281238165</v>
+        <v>-0.1542057028324262</v>
       </c>
       <c r="K192" t="n">
         <v>1692000000</v>
@@ -9967,16 +9967,16 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>3949197312</v>
+        <v>3957121536</v>
       </c>
       <c r="H193" t="n">
-        <v>0.2727363</v>
+        <v>3.931686</v>
       </c>
       <c r="I193" t="n">
-        <v>7.742938</v>
+        <v>7.641243</v>
       </c>
       <c r="J193" t="n">
-        <v>-0.9647761224486106</v>
+        <v>-0.4854651265507457</v>
       </c>
       <c r="K193" t="n">
         <v>4148000000</v>
@@ -10017,11 +10017,11 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>4001032704</v>
+        <v>3866769920</v>
       </c>
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="n">
-        <v>-18.742138</v>
+        <v>-18.113207</v>
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="n">
@@ -10063,16 +10063,16 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>4449108480</v>
+        <v>4395681792</v>
       </c>
       <c r="H195" t="n">
-        <v>16.655</v>
+        <v>16.335</v>
       </c>
       <c r="I195" t="n">
-        <v>10.814936</v>
+        <v>10.607142</v>
       </c>
       <c r="J195" t="n">
-        <v>0.5399998668508073</v>
+        <v>0.5400001244444546</v>
       </c>
       <c r="K195" t="n">
         <v>1028812992</v>
@@ -10113,16 +10113,16 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>7457718784</v>
+        <v>7504569344</v>
       </c>
       <c r="H196" t="n">
-        <v>7.9590907</v>
+        <v>8.004566000000001</v>
       </c>
       <c r="I196" t="n">
-        <v>11.296775</v>
+        <v>11.309678</v>
       </c>
       <c r="J196" t="n">
-        <v>-0.2954546142593794</v>
+        <v>-0.2922374978315032</v>
       </c>
       <c r="K196" t="n">
         <v>2617630976</v>
@@ -10161,16 +10161,16 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>6296363520</v>
+        <v>6202475520</v>
       </c>
       <c r="H197" t="n">
-        <v>16.31939</v>
+        <v>15.878325</v>
       </c>
       <c r="I197" t="n">
-        <v>13.582277</v>
+        <v>13.215189</v>
       </c>
       <c r="J197" t="n">
-        <v>0.2015209231854127</v>
+        <v>0.201520840905113</v>
       </c>
       <c r="K197" t="n">
         <v>3041400064</v>
@@ -10211,13 +10211,13 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>8706917376</v>
+        <v>8542005760</v>
       </c>
       <c r="H198" t="n">
-        <v>10.298765</v>
+        <v>9.972839</v>
       </c>
       <c r="I198" t="n">
-        <v>-320.84616</v>
+        <v>-310.69232</v>
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="n">
@@ -10259,16 +10259,16 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>9322594304</v>
+        <v>9200157696</v>
       </c>
       <c r="H199" t="n">
-        <v>30.047312</v>
+        <v>29.58387</v>
       </c>
       <c r="I199" t="n">
-        <v>31.15273</v>
+        <v>30.672241</v>
       </c>
       <c r="J199" t="n">
-        <v>-0.03548382437109032</v>
+        <v>-0.03548390872385221</v>
       </c>
       <c r="K199" t="n">
         <v>2285700096</v>
@@ -10309,16 +10309,16 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>5450766848</v>
+        <v>5530945024</v>
       </c>
       <c r="H200" t="n">
-        <v>20.13671</v>
+        <v>20.007595</v>
       </c>
       <c r="I200" t="n">
-        <v>9.319274</v>
+        <v>9.25952</v>
       </c>
       <c r="J200" t="n">
-        <v>1.160759518391669</v>
+        <v>1.160759413014929</v>
       </c>
       <c r="K200" t="n">
         <v>2598200064</v>
@@ -10359,16 +10359,16 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>7094308352</v>
+        <v>7066664448</v>
       </c>
       <c r="H201" t="n">
-        <v>42.272877</v>
+        <v>41.469215</v>
       </c>
       <c r="I201" t="n">
-        <v>55.230434</v>
+        <v>54.180435</v>
       </c>
       <c r="J201" t="n">
-        <v>-0.2346090019861151</v>
+        <v>-0.2346090429137382</v>
       </c>
       <c r="K201" t="n">
         <v>669742016</v>
@@ -10409,16 +10409,16 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>8905323520</v>
+        <v>8944826368</v>
       </c>
       <c r="H202" t="n">
-        <v>12.595643</v>
+        <v>12.639546</v>
       </c>
       <c r="I202" t="n">
-        <v>13.027424</v>
+        <v>13.085211</v>
       </c>
       <c r="J202" t="n">
-        <v>-0.03314400452460897</v>
+        <v>-0.03405867891622072</v>
       </c>
       <c r="K202" t="n">
         <v>2480496128</v>
@@ -10457,16 +10457,16 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>9908250624</v>
+        <v>10104823808</v>
       </c>
       <c r="H203" t="n">
-        <v>63.095745</v>
+        <v>61.77758</v>
       </c>
       <c r="I203" t="n">
-        <v>25.527977</v>
+        <v>24.906027</v>
       </c>
       <c r="J203" t="n">
-        <v>1.471631222481907</v>
+        <v>1.480426926382116</v>
       </c>
       <c r="K203" t="n">
         <v>1868708992</v>
@@ -10507,11 +10507,11 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>4635849728</v>
+        <v>4690184704</v>
       </c>
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="n">
-        <v>63.641228</v>
+        <v>63.916035</v>
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="n">
@@ -10553,16 +10553,16 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>6306262016</v>
+        <v>6293281792</v>
       </c>
       <c r="H205" t="n">
-        <v>19.43294</v>
+        <v>19.049412</v>
       </c>
       <c r="I205" t="n">
-        <v>17.424051</v>
+        <v>17.08017</v>
       </c>
       <c r="J205" t="n">
-        <v>0.1152940266302021</v>
+        <v>0.1152940515229064</v>
       </c>
       <c r="K205" t="n">
         <v>1448000000</v>
@@ -10603,16 +10603,16 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>10267069440</v>
+        <v>10119570432</v>
       </c>
       <c r="H206" t="n">
-        <v>11.39766</v>
+        <v>10.9651165</v>
       </c>
       <c r="I206" t="n">
-        <v>11.670659</v>
+        <v>11.293414</v>
       </c>
       <c r="J206" t="n">
-        <v>-0.02339190957425796</v>
+        <v>-0.02906981892278093</v>
       </c>
       <c r="K206" t="n">
         <v>16811192320</v>
@@ -10651,11 +10651,11 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>19472695296</v>
+        <v>18708281344</v>
       </c>
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="n">
-        <v>40.890373</v>
+        <v>40.358288</v>
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="n">
@@ -10697,16 +10697,16 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>8457367040</v>
+        <v>8458843136</v>
       </c>
       <c r="H208" t="n">
-        <v>10.45438</v>
+        <v>10.456204</v>
       </c>
       <c r="I208" t="n">
-        <v>11.715747</v>
+        <v>11.717792</v>
       </c>
       <c r="J208" t="n">
-        <v>-0.1076642402742224</v>
+        <v>-0.1076643108189665</v>
       </c>
       <c r="K208" t="n">
         <v>3174000128</v>
@@ -10745,16 +10745,16 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>7866590208</v>
+        <v>7729197568</v>
       </c>
       <c r="H209" t="n">
-        <v>47.41414</v>
+        <v>46.59596</v>
       </c>
       <c r="I209" t="n">
-        <v>35.02985</v>
+        <v>34.425373</v>
       </c>
       <c r="J209" t="n">
-        <v>0.3535353420011789</v>
+        <v>0.353535370553574</v>
       </c>
       <c r="K209" t="n">
         <v>1614000000</v>
